--- a/static/Dowload/家长导入模板.xlsx
+++ b/static/Dowload/家长导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="14070"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <r>
       <rPr>
@@ -56,6 +56,17 @@
     <t xml:space="preserve"> （必填）</t>
   </si>
   <si>
+    <t>（非必填）
+身份证件类型
+1.居民身份证
+6.香港特区护照
+7.澳门特区护照
+8.台湾居民往来大陆通行证
+A.护照
+B.户口簿
+Z.其他</t>
+  </si>
+  <si>
     <t xml:space="preserve">
  （非必填）</t>
   </si>
@@ -79,6 +90,9 @@
     <t>手机号</t>
   </si>
   <si>
+    <t>证件类型</t>
+  </si>
+  <si>
     <t>身份证号</t>
   </si>
   <si>
@@ -92,18 +106,44 @@
   </si>
   <si>
     <t>关系</t>
+  </si>
+  <si>
+    <t>来看待</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>15860725525</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>350525198585856235</t>
+  </si>
+  <si>
+    <t>G350628201006094563</t>
+  </si>
+  <si>
+    <t>宇宇</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -158,6 +198,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -165,9 +206,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,77 +220,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,22 +266,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -295,6 +289,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -311,25 +351,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,157 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,17 +565,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,17 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,15 +630,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,7 +671,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,159 +683,168 @@
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,100 +1193,138 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="4" max="4" width="10.2166666666667" customWidth="1"/>
-    <col min="5" max="5" width="30.6666666666667" customWidth="1"/>
-    <col min="7" max="9" width="15" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23" style="2" customWidth="1"/>
+    <col min="2" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="10.2166666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="20.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="59.4" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="59.4" customHeight="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="11"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="117" customHeight="1" spans="1:9">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="1" ht="172" customHeight="1" spans="1:10">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="21" customHeight="1" spans="2:9">
-      <c r="B3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    <row r="3" s="1" customFormat="1" ht="21" customHeight="1" spans="2:10">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C1:J1"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="格式错误" error="请输入正确的日期格式！" sqref="G4:G1048576 H4:I1048576">
-      <formula1>36526</formula1>
-      <formula2>54789</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
